--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject39.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject39.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="11.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,7 +131,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>0.89786389589448246</v>
       </c>
       <c r="C1" s="0">
         <v>0</v>
@@ -191,7 +191,7 @@
         <v>0</v>
       </c>
       <c r="V1" s="0">
-        <v>0</v>
+        <v>0.64047676429495826</v>
       </c>
       <c r="W1" s="0">
         <v>0</v>
@@ -200,7 +200,7 @@
         <v>0</v>
       </c>
       <c r="Y1" s="0">
-        <v>0</v>
+        <v>0.97229334201554951</v>
       </c>
       <c r="Z1" s="0">
         <v>0</v>
@@ -317,7 +317,7 @@
         <v>0</v>
       </c>
       <c r="BL1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM1" s="0">
         <v>0</v>
@@ -326,7 +326,7 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP1" s="0">
         <v>0</v>
@@ -334,16 +334,16 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0.86374991395654765</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0</v>
+        <v>0.91799713509561598</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -355,7 +355,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="0">
         <v>0</v>
@@ -379,7 +379,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="0">
         <v>0</v>
@@ -397,7 +397,7 @@
         <v>0</v>
       </c>
       <c r="V2" s="0">
-        <v>0</v>
+        <v>0.71628889408992413</v>
       </c>
       <c r="W2" s="0">
         <v>0</v>
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="AG2" s="0">
-        <v>0</v>
+        <v>0.79595010826066948</v>
       </c>
       <c r="AH2" s="0">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>0</v>
       </c>
       <c r="BO2" s="0">
-        <v>0</v>
+        <v>0.61645460360710258</v>
       </c>
       <c r="BP2" s="0">
         <v>0</v>
@@ -543,13 +543,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="0">
-        <v>0</v>
+        <v>0.59657666939131704</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0</v>
+        <v>0.81644666083881201</v>
       </c>
       <c r="E3" s="0">
         <v>0</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="AE3" s="0">
-        <v>0</v>
+        <v>0.53630249637216587</v>
       </c>
       <c r="AF3" s="0">
         <v>0</v>
@@ -651,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="AL3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3" s="0">
         <v>0</v>
@@ -684,10 +684,10 @@
         <v>0</v>
       </c>
       <c r="AW3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX3" s="0">
-        <v>0</v>
+        <v>0.5715494595594135</v>
       </c>
       <c r="AY3" s="0">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="BC3" s="0">
-        <v>0</v>
+        <v>0.55021166047740566</v>
       </c>
       <c r="BD3" s="0">
         <v>0</v>
@@ -717,16 +717,16 @@
         <v>0</v>
       </c>
       <c r="BH3" s="0">
-        <v>1</v>
+        <v>0.87818374588137416</v>
       </c>
       <c r="BI3" s="0">
         <v>0</v>
       </c>
       <c r="BJ3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL3" s="0">
         <v>0</v>
@@ -749,10 +749,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>0</v>
+        <v>0.61115049528754972</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="0">
-        <v>0</v>
+        <v>0.73638063343970839</v>
       </c>
       <c r="J4" s="0">
         <v>0</v>
@@ -800,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="S4" s="0">
-        <v>0</v>
+        <v>0.72733351288742842</v>
       </c>
       <c r="T4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" s="0">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="Z4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="0">
         <v>0</v>
@@ -923,13 +923,13 @@
         <v>0</v>
       </c>
       <c r="BH4" s="0">
-        <v>0</v>
+        <v>0.97878089041516947</v>
       </c>
       <c r="BI4" s="0">
         <v>0</v>
       </c>
       <c r="BJ4" s="0">
-        <v>0</v>
+        <v>0.56811209638394111</v>
       </c>
       <c r="BK4" s="0">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="BP4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="0">
-        <v>0</v>
+        <v>0.84264600806296974</v>
       </c>
       <c r="K5" s="0">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="U5" s="0">
-        <v>0</v>
+        <v>0.5666831910353719</v>
       </c>
       <c r="V5" s="0">
         <v>0</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="Z5" s="0">
-        <v>0</v>
+        <v>0.95723082137572724</v>
       </c>
       <c r="AA5" s="0">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="BE5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF5" s="0">
         <v>0</v>
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="BH5" s="0">
-        <v>0</v>
+        <v>0.57591409235617785</v>
       </c>
       <c r="BI5" s="0">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="0">
-        <v>0</v>
+        <v>0.52476556638085037</v>
       </c>
       <c r="N6" s="0">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="S6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" s="0">
         <v>0</v>
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="0">
         <v>0</v>
@@ -1281,13 +1281,13 @@
         <v>0</v>
       </c>
       <c r="AP6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ6" s="0">
         <v>0</v>
       </c>
       <c r="AR6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS6" s="0">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="AW6" s="0">
-        <v>0</v>
+        <v>0.60275293215027137</v>
       </c>
       <c r="AX6" s="0">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="0">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="0">
-        <v>0</v>
+        <v>0.82531395020077225</v>
       </c>
       <c r="M7" s="0">
         <v>0</v>
@@ -1406,13 +1406,13 @@
         <v>0</v>
       </c>
       <c r="O7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" s="0">
         <v>0</v>
       </c>
       <c r="Q7" s="0">
-        <v>0</v>
+        <v>0.57909686693748941</v>
       </c>
       <c r="R7" s="0">
         <v>0</v>
@@ -1439,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="Z7" s="0">
-        <v>0</v>
+        <v>0.79277668789574529</v>
       </c>
       <c r="AA7" s="0">
         <v>0</v>
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="AO7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP7" s="0">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="AS7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="0">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="BA7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB7" s="0">
         <v>0</v>
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="BP7" s="0">
-        <v>0</v>
+        <v>0.89846351140704606</v>
       </c>
     </row>
     <row r="8">
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="0">
         <v>0</v>
@@ -1594,10 +1594,10 @@
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>0</v>
+        <v>0.50918298216073543</v>
       </c>
       <c r="J8" s="0">
-        <v>0</v>
+        <v>0.55335974691888523</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="0">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="AF8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="0">
         <v>0</v>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="AZ8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA8" s="0">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0</v>
+        <v>0.70927137887428438</v>
       </c>
       <c r="E9" s="0">
         <v>0</v>
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="0">
-        <v>0</v>
+        <v>0.85168623949150302</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="M9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="0">
         <v>0</v>
@@ -1875,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="AH9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI9" s="0">
         <v>0</v>
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="AM9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN9" s="0">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="BL9" s="0">
-        <v>0</v>
+        <v>0.53128455368613214</v>
       </c>
       <c r="BM9" s="0">
         <v>0</v>
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>0</v>
+        <v>0.88436780936657122</v>
       </c>
       <c r="F10" s="0">
         <v>0</v>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0</v>
+        <v>0.54207131598503111</v>
       </c>
       <c r="I10" s="0">
         <v>0</v>
@@ -2015,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2051,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="X10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="0">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="AG10" s="0">
-        <v>0</v>
+        <v>0.62441904095437195</v>
       </c>
       <c r="AH10" s="0">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK10" s="0">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="AV10" s="0">
-        <v>0</v>
+        <v>0.62945298066798405</v>
       </c>
       <c r="AW10" s="0">
         <v>0</v>
@@ -2221,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="0">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" s="0">
         <v>0</v>
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="Z11" s="0">
-        <v>0</v>
+        <v>0.57751788406131366</v>
       </c>
       <c r="AA11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="0">
         <v>0</v>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="AF11" s="0">
-        <v>0</v>
+        <v>0.79772565525357897</v>
       </c>
       <c r="AG11" s="0">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="AN11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="0">
         <v>0</v>
@@ -2314,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="AQ11" s="0">
-        <v>0</v>
+        <v>0.67662346653756367</v>
       </c>
       <c r="AR11" s="0">
         <v>0</v>
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="BC11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="0">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="BG11" s="0">
-        <v>0</v>
+        <v>0.57708433211323906</v>
       </c>
       <c r="BH11" s="0">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="0">
-        <v>0</v>
+        <v>0.72460714149276839</v>
       </c>
       <c r="H12" s="0">
         <v>0</v>
@@ -2421,19 +2421,19 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0.7778930298093778</v>
       </c>
       <c r="N12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="AD12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="0">
         <v>0</v>
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="AZ12" s="0">
-        <v>0</v>
+        <v>0.72618078781419493</v>
       </c>
       <c r="BA12" s="0">
         <v>0</v>
@@ -2559,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="BD12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE12" s="0">
         <v>0</v>
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="0">
-        <v>0</v>
+        <v>0.64776060777357736</v>
       </c>
       <c r="G13" s="0">
         <v>0</v>
@@ -2624,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="0">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0.77205744168204937</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2654,10 +2654,10 @@
         <v>0</v>
       </c>
       <c r="S13" s="0">
-        <v>0</v>
+        <v>0.65843157179512102</v>
       </c>
       <c r="T13" s="0">
-        <v>0</v>
+        <v>0.59721734254289749</v>
       </c>
       <c r="U13" s="0">
         <v>0</v>
@@ -2753,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="AZ13" s="0">
-        <v>0</v>
+        <v>0.82455974166759449</v>
       </c>
       <c r="BA13" s="0">
         <v>0</v>
@@ -2765,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="BD13" s="0">
-        <v>0</v>
+        <v>0.84700938276899063</v>
       </c>
       <c r="BE13" s="0">
         <v>0</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="BK13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL13" s="0">
         <v>0</v>
@@ -2830,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="0">
         <v>0</v>
@@ -2854,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="Q14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" s="0">
         <v>0</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="U14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" s="0">
         <v>0</v>
@@ -2902,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="AG14" s="0">
-        <v>1</v>
+        <v>0.68670457777987726</v>
       </c>
       <c r="AH14" s="0">
         <v>0</v>
@@ -2947,10 +2947,10 @@
         <v>0</v>
       </c>
       <c r="AV14" s="0">
-        <v>0</v>
+        <v>0.76362164515050912</v>
       </c>
       <c r="AW14" s="0">
-        <v>0</v>
+        <v>0.64870187369516796</v>
       </c>
       <c r="AX14" s="0">
         <v>0</v>
@@ -2980,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="BG14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH14" s="0">
         <v>0</v>
@@ -3030,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="0">
         <v>0</v>
@@ -3048,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="0">
         <v>0</v>
@@ -3057,16 +3057,16 @@
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>0</v>
+        <v>0.65073128996873275</v>
       </c>
       <c r="Q15" s="0">
-        <v>0</v>
+        <v>0.68127732756790205</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
       </c>
       <c r="S15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" s="0">
         <v>0</v>
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="AL15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15" s="0">
         <v>0</v>
@@ -3135,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="AP15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ15" s="0">
         <v>0</v>
@@ -3221,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="0">
         <v>0</v>
@@ -3260,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="0">
-        <v>0</v>
+        <v>0.8794884662952811</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AG16" s="0">
-        <v>0</v>
+        <v>0.56122521446195739</v>
       </c>
       <c r="AH16" s="0">
         <v>0</v>
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="AT16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU16" s="0">
         <v>0</v>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="BN16" s="0">
-        <v>0</v>
+        <v>0.98548720081153118</v>
       </c>
       <c r="BO16" s="0">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="0">
-        <v>0</v>
+        <v>0.88647154919835902</v>
       </c>
       <c r="H17" s="0">
         <v>0</v>
@@ -3454,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="0">
         <v>0</v>
@@ -3463,10 +3463,10 @@
         <v>0</v>
       </c>
       <c r="N17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>0</v>
+        <v>0.92877604213375409</v>
       </c>
       <c r="P17" s="0">
         <v>0</v>
@@ -3499,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="Z17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="0">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="AF17" s="0">
-        <v>0</v>
+        <v>0.92222907882404859</v>
       </c>
       <c r="AG17" s="0">
         <v>0</v>
@@ -3529,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="AJ17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK17" s="0">
         <v>0</v>
@@ -3538,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="AM17" s="0">
-        <v>0</v>
+        <v>0.50365308777114426</v>
       </c>
       <c r="AN17" s="0">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="AV17" s="0">
-        <v>0</v>
+        <v>0.9304385030484521</v>
       </c>
       <c r="AW17" s="0">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="AY17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ17" s="0">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="0">
         <v>0</v>
@@ -3765,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="AT18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU18" s="0">
         <v>0</v>
@@ -3786,10 +3786,10 @@
         <v>0</v>
       </c>
       <c r="BA18" s="0">
-        <v>0</v>
+        <v>0.70281772108521334</v>
       </c>
       <c r="BB18" s="0">
-        <v>0</v>
+        <v>0.6034740791317752</v>
       </c>
       <c r="BC18" s="0">
         <v>0</v>
@@ -3816,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="BK18" s="0">
-        <v>0</v>
+        <v>0.60011245418385517</v>
       </c>
       <c r="BL18" s="0">
         <v>0</v>
@@ -3828,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="BO18" s="0">
-        <v>0</v>
+        <v>0.82922681066217596</v>
       </c>
       <c r="BP18" s="0">
         <v>0</v>
@@ -3845,13 +3845,13 @@
         <v>0</v>
       </c>
       <c r="D19" s="0">
-        <v>0</v>
+        <v>0.62879066734187639</v>
       </c>
       <c r="E19" s="0">
         <v>0</v>
       </c>
       <c r="F19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="0">
         <v>0</v>
@@ -3872,13 +3872,13 @@
         <v>0</v>
       </c>
       <c r="M19" s="0">
-        <v>0</v>
+        <v>0.86240126345043611</v>
       </c>
       <c r="N19" s="0">
         <v>0</v>
       </c>
       <c r="O19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" s="0">
         <v>0</v>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" s="0">
         <v>0</v>
@@ -3947,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="AL19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19" s="0">
         <v>0</v>
@@ -4013,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="BH19" s="0">
-        <v>0</v>
+        <v>0.63047938228128964</v>
       </c>
       <c r="BI19" s="0">
         <v>0</v>
@@ -4051,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="0">
         <v>0</v>
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="0">
-        <v>0</v>
+        <v>0.68349295551521039</v>
       </c>
       <c r="N20" s="0">
         <v>0</v>
@@ -4096,7 +4096,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
@@ -4105,13 +4105,13 @@
         <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
       </c>
       <c r="X20" s="0">
-        <v>0</v>
+        <v>0.63940509963832981</v>
       </c>
       <c r="Y20" s="0">
         <v>0</v>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="AM20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN20" s="0">
         <v>0</v>
@@ -4177,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="AT20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU20" s="0">
         <v>0</v>
@@ -4210,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="BE20" s="0">
-        <v>0</v>
+        <v>0.70546905966859197</v>
       </c>
       <c r="BF20" s="0">
         <v>0</v>
@@ -4225,13 +4225,13 @@
         <v>0</v>
       </c>
       <c r="BJ20" s="0">
-        <v>0</v>
+        <v>0.54849650863599919</v>
       </c>
       <c r="BK20" s="0">
         <v>0</v>
       </c>
       <c r="BL20" s="0">
-        <v>0</v>
+        <v>0.74087158682203114</v>
       </c>
       <c r="BM20" s="0">
         <v>0</v>
@@ -4260,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="0">
-        <v>0</v>
+        <v>0.95659629227246978</v>
       </c>
       <c r="F21" s="0">
         <v>0</v>
@@ -4287,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" s="0">
         <v>0</v>
@@ -4311,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0</v>
+        <v>0.85462142332768187</v>
       </c>
       <c r="W21" s="0">
         <v>0</v>
@@ -4329,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="AB21" s="0">
-        <v>0</v>
+        <v>0.77536563917144263</v>
       </c>
       <c r="AC21" s="0">
         <v>0</v>
@@ -4368,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="AO21" s="0">
-        <v>1</v>
+        <v>0.76795213001634421</v>
       </c>
       <c r="AP21" s="0">
         <v>0</v>
@@ -4383,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="AT21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU21" s="0">
         <v>0</v>
@@ -4425,7 +4425,7 @@
         <v>0</v>
       </c>
       <c r="BH21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="0">
         <v>0</v>
@@ -4454,10 +4454,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0</v>
+        <v>0.8196898509754964</v>
       </c>
       <c r="B22" s="0">
-        <v>0</v>
+        <v>0.53615938356205373</v>
       </c>
       <c r="C22" s="0">
         <v>0</v>
@@ -4511,10 +4511,10 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" s="0">
-        <v>0</v>
+        <v>0.70321839324497182</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
@@ -4526,13 +4526,13 @@
         <v>0</v>
       </c>
       <c r="Y22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="0">
         <v>0</v>
       </c>
       <c r="AA22" s="0">
-        <v>0</v>
+        <v>0.99750206289537724</v>
       </c>
       <c r="AB22" s="0">
         <v>0</v>
@@ -4553,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="AH22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI22" s="0">
         <v>0</v>
@@ -4565,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="AL22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22" s="0">
         <v>0</v>
@@ -4616,7 +4616,7 @@
         <v>0</v>
       </c>
       <c r="BC22" s="0">
-        <v>0</v>
+        <v>0.78637485476292335</v>
       </c>
       <c r="BD22" s="0">
         <v>0</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="BM22" s="0">
-        <v>0</v>
+        <v>0.53793503276289345</v>
       </c>
       <c r="BN22" s="0">
         <v>0</v>
@@ -4783,7 +4783,7 @@
         <v>0</v>
       </c>
       <c r="AP23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ23" s="0">
         <v>0</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="AS23" s="0">
-        <v>0</v>
+        <v>0.9537980267474977</v>
       </c>
       <c r="AT23" s="0">
         <v>0</v>
@@ -4819,7 +4819,7 @@
         <v>0</v>
       </c>
       <c r="BB23" s="0">
-        <v>0</v>
+        <v>0.95333671099144746</v>
       </c>
       <c r="BC23" s="0">
         <v>0</v>
@@ -4852,13 +4852,13 @@
         <v>0</v>
       </c>
       <c r="BM23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="0">
         <v>0</v>
       </c>
       <c r="BO23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP23" s="0">
         <v>0</v>
@@ -4893,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="0">
         <v>0</v>
@@ -4923,7 +4923,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="0">
-        <v>0</v>
+        <v>0.76313759598868713</v>
       </c>
       <c r="U24" s="0">
         <v>0</v>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -4965,13 +4965,13 @@
         <v>0</v>
       </c>
       <c r="AH24" s="0">
-        <v>0</v>
+        <v>0.52198036991959573</v>
       </c>
       <c r="AI24" s="0">
         <v>0</v>
       </c>
       <c r="AJ24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK24" s="0">
         <v>0</v>
@@ -4980,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="AM24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN24" s="0">
         <v>0</v>
@@ -4992,13 +4992,13 @@
         <v>0</v>
       </c>
       <c r="AQ24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR24" s="0">
         <v>0</v>
       </c>
       <c r="AS24" s="0">
-        <v>0</v>
+        <v>0.88024156490408623</v>
       </c>
       <c r="AT24" s="0">
         <v>0</v>
@@ -5019,7 +5019,7 @@
         <v>0</v>
       </c>
       <c r="AZ24" s="0">
-        <v>0</v>
+        <v>0.94370645727845459</v>
       </c>
       <c r="BA24" s="0">
         <v>0</v>
@@ -5031,7 +5031,7 @@
         <v>0</v>
       </c>
       <c r="BD24" s="0">
-        <v>0</v>
+        <v>0.63475827732421375</v>
       </c>
       <c r="BE24" s="0">
         <v>0</v>
@@ -5072,7 +5072,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0</v>
+        <v>0.79307380609506462</v>
       </c>
       <c r="B25" s="0">
         <v>0</v>
@@ -5135,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="V25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25" s="0">
         <v>0</v>
@@ -5225,10 +5225,10 @@
         <v>0</v>
       </c>
       <c r="AZ25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA25" s="0">
-        <v>1</v>
+        <v>0.78865989698912786</v>
       </c>
       <c r="BB25" s="0">
         <v>0</v>
@@ -5261,13 +5261,13 @@
         <v>0</v>
       </c>
       <c r="BL25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM25" s="0">
         <v>0</v>
       </c>
       <c r="BN25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO25" s="0">
         <v>0</v>
@@ -5287,16 +5287,16 @@
         <v>0</v>
       </c>
       <c r="D26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="0">
-        <v>0</v>
+        <v>0.88557751852487132</v>
       </c>
       <c r="F26" s="0">
         <v>0</v>
       </c>
       <c r="G26" s="0">
-        <v>0</v>
+        <v>0.5336641569679843</v>
       </c>
       <c r="H26" s="0">
         <v>0</v>
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="0">
-        <v>0</v>
+        <v>0.706435049448629</v>
       </c>
       <c r="L26" s="0">
         <v>0</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" s="0">
         <v>0</v>
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="0">
         <v>0</v>
@@ -5422,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="AW26" s="0">
-        <v>0</v>
+        <v>0.9497985510331588</v>
       </c>
       <c r="AX26" s="0">
         <v>0</v>
@@ -5437,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="BB26" s="0">
-        <v>0</v>
+        <v>0.99636182221272696</v>
       </c>
       <c r="BC26" s="0">
         <v>0</v>
@@ -5446,10 +5446,10 @@
         <v>0</v>
       </c>
       <c r="BE26" s="0">
-        <v>0</v>
+        <v>0.73376350624965359</v>
       </c>
       <c r="BF26" s="0">
-        <v>0</v>
+        <v>0.87103861418674278</v>
       </c>
       <c r="BG26" s="0">
         <v>0</v>
@@ -5514,7 +5514,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="0">
         <v>0</v>
@@ -5547,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="V27" s="0">
-        <v>0</v>
+        <v>0.88054392875512444</v>
       </c>
       <c r="W27" s="0">
         <v>0</v>
@@ -5580,7 +5580,7 @@
         <v>0</v>
       </c>
       <c r="AG27" s="0">
-        <v>0</v>
+        <v>0.87705532647328377</v>
       </c>
       <c r="AH27" s="0">
         <v>0</v>
@@ -5595,7 +5595,7 @@
         <v>0</v>
       </c>
       <c r="AL27" s="0">
-        <v>0</v>
+        <v>0.6409977241055147</v>
       </c>
       <c r="AM27" s="0">
         <v>0</v>
@@ -5616,7 +5616,7 @@
         <v>0</v>
       </c>
       <c r="AS27" s="0">
-        <v>0</v>
+        <v>0.55021590210040627</v>
       </c>
       <c r="AT27" s="0">
         <v>0</v>
@@ -5640,7 +5640,7 @@
         <v>0</v>
       </c>
       <c r="BA27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB27" s="0">
         <v>0</v>
@@ -5649,7 +5649,7 @@
         <v>0</v>
       </c>
       <c r="BD27" s="0">
-        <v>0</v>
+        <v>0.80270241172259948</v>
       </c>
       <c r="BE27" s="0">
         <v>0</v>
@@ -5705,13 +5705,13 @@
         <v>0</v>
       </c>
       <c r="F28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" s="0">
         <v>0</v>
       </c>
       <c r="H28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="0">
         <v>0</v>
@@ -5750,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="U28" s="0">
-        <v>0</v>
+        <v>0.80787074352202648</v>
       </c>
       <c r="V28" s="0">
         <v>0</v>
@@ -5777,16 +5777,16 @@
         <v>0</v>
       </c>
       <c r="AD28" s="0">
-        <v>0</v>
+        <v>0.75272695439639636</v>
       </c>
       <c r="AE28" s="0">
-        <v>0</v>
+        <v>0.73636740690543423</v>
       </c>
       <c r="AF28" s="0">
         <v>0</v>
       </c>
       <c r="AG28" s="0">
-        <v>0</v>
+        <v>0.71735561170144291</v>
       </c>
       <c r="AH28" s="0">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="AO28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP28" s="0">
         <v>0</v>
@@ -5825,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="AT28" s="0">
-        <v>0</v>
+        <v>0.60845154581077654</v>
       </c>
       <c r="AU28" s="0">
         <v>0</v>
@@ -5843,7 +5843,7 @@
         <v>0</v>
       </c>
       <c r="AZ28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA28" s="0">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="AG29" s="0">
-        <v>0</v>
+        <v>0.9670199912299402</v>
       </c>
       <c r="AH29" s="0">
         <v>0</v>
@@ -6031,7 +6031,7 @@
         <v>0</v>
       </c>
       <c r="AT29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU29" s="0">
         <v>0</v>
@@ -6040,13 +6040,13 @@
         <v>0</v>
       </c>
       <c r="AW29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX29" s="0">
         <v>0</v>
       </c>
       <c r="AY29" s="0">
-        <v>0</v>
+        <v>0.67517423365273843</v>
       </c>
       <c r="AZ29" s="0">
         <v>0</v>
@@ -6061,13 +6061,13 @@
         <v>0</v>
       </c>
       <c r="BD29" s="0">
-        <v>0</v>
+        <v>0.53283401535986452</v>
       </c>
       <c r="BE29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF29" s="0">
-        <v>0</v>
+        <v>0.50791342347875612</v>
       </c>
       <c r="BG29" s="0">
         <v>0</v>
@@ -6088,7 +6088,7 @@
         <v>0</v>
       </c>
       <c r="BM29" s="0">
-        <v>0</v>
+        <v>0.95678028264902593</v>
       </c>
       <c r="BN29" s="0">
         <v>0</v>
@@ -6135,7 +6135,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" s="0">
         <v>0</v>
@@ -6183,7 +6183,7 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>0</v>
+        <v>0.58221312171936801</v>
       </c>
       <c r="AC30" s="0">
         <v>0</v>
@@ -6192,10 +6192,10 @@
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>0</v>
+        <v>0.57570553692811599</v>
       </c>
       <c r="AF30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6237,10 +6237,10 @@
         <v>0</v>
       </c>
       <c r="AT30" s="0">
-        <v>0</v>
+        <v>0.85995690456108598</v>
       </c>
       <c r="AU30" s="0">
-        <v>0</v>
+        <v>0.63353659261590922</v>
       </c>
       <c r="AV30" s="0">
         <v>0</v>
@@ -6314,7 +6314,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="0">
-        <v>0</v>
+        <v>0.9615654729102362</v>
       </c>
       <c r="D31" s="0">
         <v>0</v>
@@ -6389,13 +6389,13 @@
         <v>0</v>
       </c>
       <c r="AB31" s="0">
-        <v>0</v>
+        <v>0.70691871120994643</v>
       </c>
       <c r="AC31" s="0">
         <v>0</v>
       </c>
       <c r="AD31" s="0">
-        <v>0</v>
+        <v>0.59334742979497301</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
@@ -6410,7 +6410,7 @@
         <v>0</v>
       </c>
       <c r="AI31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ31" s="0">
         <v>0</v>
@@ -6479,7 +6479,7 @@
         <v>0</v>
       </c>
       <c r="BF31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG31" s="0">
         <v>0</v>
@@ -6494,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="BK31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL31" s="0">
         <v>0</v>
@@ -6535,7 +6535,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="0">
         <v>0</v>
@@ -6544,7 +6544,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="0">
-        <v>0</v>
+        <v>0.6892844722461271</v>
       </c>
       <c r="L32" s="0">
         <v>0</v>
@@ -6562,7 +6562,7 @@
         <v>0</v>
       </c>
       <c r="Q32" s="0">
-        <v>0</v>
+        <v>0.78236282939020041</v>
       </c>
       <c r="R32" s="0">
         <v>0</v>
@@ -6601,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="0">
         <v>0</v>
@@ -6613,7 +6613,7 @@
         <v>0</v>
       </c>
       <c r="AH32" s="0">
-        <v>1</v>
+        <v>0.50219083416457333</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6628,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="AM32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN32" s="0">
         <v>0</v>
@@ -6723,7 +6723,7 @@
         <v>0</v>
       </c>
       <c r="B33" s="0">
-        <v>0</v>
+        <v>0.58107788955001805</v>
       </c>
       <c r="C33" s="0">
         <v>0</v>
@@ -6747,7 +6747,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="0">
-        <v>0</v>
+        <v>0.85229449432408111</v>
       </c>
       <c r="K33" s="0">
         <v>0</v>
@@ -6759,13 +6759,13 @@
         <v>0</v>
       </c>
       <c r="N33" s="0">
-        <v>1</v>
+        <v>0.6509327736786652</v>
       </c>
       <c r="O33" s="0">
         <v>0</v>
       </c>
       <c r="P33" s="0">
-        <v>0</v>
+        <v>0.50284941751272272</v>
       </c>
       <c r="Q33" s="0">
         <v>0</v>
@@ -6798,13 +6798,13 @@
         <v>0</v>
       </c>
       <c r="AA33" s="0">
-        <v>0</v>
+        <v>0.62598178684314409</v>
       </c>
       <c r="AB33" s="0">
-        <v>0</v>
+        <v>0.87056683442339722</v>
       </c>
       <c r="AC33" s="0">
-        <v>0</v>
+        <v>0.6011846745775139</v>
       </c>
       <c r="AD33" s="0">
         <v>0</v>
@@ -6840,7 +6840,7 @@
         <v>0</v>
       </c>
       <c r="AO33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP33" s="0">
         <v>0</v>
@@ -6855,7 +6855,7 @@
         <v>0</v>
       </c>
       <c r="AT33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU33" s="0">
         <v>0</v>
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="AW33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX33" s="0">
         <v>0</v>
@@ -6950,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" s="0">
         <v>0</v>
@@ -6989,13 +6989,13 @@
         <v>0</v>
       </c>
       <c r="V34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W34" s="0">
         <v>0</v>
       </c>
       <c r="X34" s="0">
-        <v>0</v>
+        <v>0.77976657115063863</v>
       </c>
       <c r="Y34" s="0">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>1</v>
+        <v>0.82720258695762561</v>
       </c>
       <c r="AG34" s="0">
         <v>0</v>
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="AJ34" s="0">
-        <v>0</v>
+        <v>0.92354848379769572</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>0</v>
       </c>
       <c r="AS34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT34" s="0">
         <v>0</v>
@@ -7222,7 +7222,7 @@
         <v>0</v>
       </c>
       <c r="AE35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF35" s="0">
         <v>0</v>
@@ -7237,10 +7237,10 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>0</v>
+        <v>0.54064200529095974</v>
       </c>
       <c r="AK35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7288,10 +7288,10 @@
         <v>0</v>
       </c>
       <c r="BA35" s="0">
-        <v>0</v>
+        <v>0.65084094823479688</v>
       </c>
       <c r="BB35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC35" s="0">
         <v>0</v>
@@ -7327,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="BN35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO35" s="0">
         <v>0</v>
@@ -7365,7 +7365,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="0">
         <v>0</v>
@@ -7386,7 +7386,7 @@
         <v>0</v>
       </c>
       <c r="Q36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36" s="0">
         <v>0</v>
@@ -7407,7 +7407,7 @@
         <v>0</v>
       </c>
       <c r="X36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y36" s="0">
         <v>0</v>
@@ -7437,10 +7437,10 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>0</v>
+        <v>0.91675080023818567</v>
       </c>
       <c r="AI36" s="0">
-        <v>0</v>
+        <v>0.54269208145541925</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
@@ -7452,10 +7452,10 @@
         <v>0</v>
       </c>
       <c r="AM36" s="0">
-        <v>0</v>
+        <v>0.98182494251537666</v>
       </c>
       <c r="AN36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO36" s="0">
         <v>0</v>
@@ -7494,7 +7494,7 @@
         <v>0</v>
       </c>
       <c r="BA36" s="0">
-        <v>0</v>
+        <v>0.62420351415887454</v>
       </c>
       <c r="BB36" s="0">
         <v>0</v>
@@ -7533,7 +7533,7 @@
         <v>0</v>
       </c>
       <c r="BN36" s="0">
-        <v>0</v>
+        <v>0.91273118367834027</v>
       </c>
       <c r="BO36" s="0">
         <v>0</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ37" s="0">
         <v>0</v>
@@ -7658,7 +7658,7 @@
         <v>0</v>
       </c>
       <c r="AM37" s="0">
-        <v>0</v>
+        <v>0.81399818070346341</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7679,19 +7679,19 @@
         <v>0</v>
       </c>
       <c r="AT37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU37" s="0">
         <v>0</v>
       </c>
       <c r="AV37" s="0">
-        <v>0</v>
+        <v>0.77576742759660577</v>
       </c>
       <c r="AW37" s="0">
         <v>0</v>
       </c>
       <c r="AX37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY37" s="0">
         <v>0</v>
@@ -7730,7 +7730,7 @@
         <v>0</v>
       </c>
       <c r="BK37" s="0">
-        <v>0</v>
+        <v>0.72953050857315627</v>
       </c>
       <c r="BL37" s="0">
         <v>0</v>
@@ -7756,7 +7756,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" s="0">
         <v>0</v>
@@ -7792,7 +7792,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" s="0">
         <v>0</v>
@@ -7804,7 +7804,7 @@
         <v>0</v>
       </c>
       <c r="S38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38" s="0">
         <v>0</v>
@@ -7813,7 +7813,7 @@
         <v>0</v>
       </c>
       <c r="V38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W38" s="0">
         <v>0</v>
@@ -7828,7 +7828,7 @@
         <v>0</v>
       </c>
       <c r="AA38" s="0">
-        <v>0</v>
+        <v>0.60289545084598783</v>
       </c>
       <c r="AB38" s="0">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>0</v>
+        <v>0.62732666266739767</v>
       </c>
       <c r="AN38" s="0">
         <v>0</v>
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="AV38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW38" s="0">
         <v>0</v>
@@ -7980,7 +7980,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" s="0">
         <v>0</v>
@@ -8004,7 +8004,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="0">
-        <v>0</v>
+        <v>0.75239941064087301</v>
       </c>
       <c r="R39" s="0">
         <v>0</v>
@@ -8013,7 +8013,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U39" s="0">
         <v>0</v>
@@ -8025,7 +8025,7 @@
         <v>0</v>
       </c>
       <c r="X39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="0">
         <v>0</v>
@@ -8049,7 +8049,7 @@
         <v>0</v>
       </c>
       <c r="AF39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG39" s="0">
         <v>0</v>
@@ -8061,19 +8061,19 @@
         <v>0</v>
       </c>
       <c r="AJ39" s="0">
-        <v>0</v>
+        <v>0.81611991559125729</v>
       </c>
       <c r="AK39" s="0">
-        <v>0</v>
+        <v>0.78618763510363843</v>
       </c>
       <c r="AL39" s="0">
-        <v>0</v>
+        <v>0.77704789316527689</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>0</v>
+        <v>0.85243716855873775</v>
       </c>
       <c r="AO39" s="0">
         <v>0</v>
@@ -8085,10 +8085,10 @@
         <v>0</v>
       </c>
       <c r="AR39" s="0">
-        <v>0</v>
+        <v>0.79009375156416084</v>
       </c>
       <c r="AS39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT39" s="0">
         <v>0</v>
@@ -8118,7 +8118,7 @@
         <v>0</v>
       </c>
       <c r="BC39" s="0">
-        <v>0</v>
+        <v>0.71006269853235593</v>
       </c>
       <c r="BD39" s="0">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="BI39" s="0">
-        <v>0</v>
+        <v>0.86583727083070561</v>
       </c>
       <c r="BJ39" s="0">
         <v>0</v>
@@ -8192,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" s="0">
         <v>0</v>
@@ -8267,7 +8267,7 @@
         <v>0</v>
       </c>
       <c r="AJ40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK40" s="0">
         <v>0</v>
@@ -8276,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="AM40" s="0">
-        <v>0</v>
+        <v>0.74645029454970613</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
@@ -8285,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="AP40" s="0">
-        <v>0</v>
+        <v>0.68287798665243926</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="AS40" s="0">
-        <v>0</v>
+        <v>0.66871786537405675</v>
       </c>
       <c r="AT40" s="0">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="AW40" s="0">
-        <v>0</v>
+        <v>0.69958428512492699</v>
       </c>
       <c r="AX40" s="0">
         <v>0</v>
@@ -8321,7 +8321,7 @@
         <v>0</v>
       </c>
       <c r="BB40" s="0">
-        <v>1</v>
+        <v>0.64065424786545688</v>
       </c>
       <c r="BC40" s="0">
         <v>0</v>
@@ -8357,7 +8357,7 @@
         <v>0</v>
       </c>
       <c r="BN40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO40" s="0">
         <v>0</v>
@@ -8386,7 +8386,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" s="0">
         <v>0</v>
@@ -8428,7 +8428,7 @@
         <v>0</v>
       </c>
       <c r="U41" s="0">
-        <v>1</v>
+        <v>0.95453049583342464</v>
       </c>
       <c r="V41" s="0">
         <v>0</v>
@@ -8449,7 +8449,7 @@
         <v>0</v>
       </c>
       <c r="AB41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC41" s="0">
         <v>0</v>
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="AG41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH41" s="0">
         <v>0</v>
@@ -8524,7 +8524,7 @@
         <v>0</v>
       </c>
       <c r="BA41" s="0">
-        <v>0</v>
+        <v>0.98908867627690422</v>
       </c>
       <c r="BB41" s="0">
         <v>0</v>
@@ -8589,7 +8589,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" s="0">
         <v>0</v>
@@ -8616,7 +8616,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42" s="0">
         <v>0</v>
@@ -8640,7 +8640,7 @@
         <v>0</v>
       </c>
       <c r="W42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X42" s="0">
         <v>0</v>
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>0</v>
+        <v>0.52576345838920147</v>
       </c>
       <c r="AO42" s="0">
         <v>0</v>
@@ -8709,7 +8709,7 @@
         <v>0</v>
       </c>
       <c r="AT42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU42" s="0">
         <v>0</v>
@@ -8718,7 +8718,7 @@
         <v>0</v>
       </c>
       <c r="AW42" s="0">
-        <v>0</v>
+        <v>0.70592969838118647</v>
       </c>
       <c r="AX42" s="0">
         <v>0</v>
@@ -8733,7 +8733,7 @@
         <v>0</v>
       </c>
       <c r="BB42" s="0">
-        <v>0</v>
+        <v>0.52675297992450143</v>
       </c>
       <c r="BC42" s="0">
         <v>0</v>
@@ -8810,7 +8810,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="0">
-        <v>0</v>
+        <v>0.73753827330045929</v>
       </c>
       <c r="L43" s="0">
         <v>0</v>
@@ -8849,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="X43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="0">
         <v>0</v>
@@ -8912,13 +8912,13 @@
         <v>0</v>
       </c>
       <c r="AS43" s="0">
-        <v>0</v>
+        <v>0.61559463148011662</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
       </c>
       <c r="AU43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV43" s="0">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="AY43" s="0">
-        <v>0</v>
+        <v>0.67054698961523362</v>
       </c>
       <c r="AZ43" s="0">
         <v>0</v>
@@ -8951,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="BF43" s="0">
-        <v>0</v>
+        <v>0.97096864115692894</v>
       </c>
       <c r="BG43" s="0">
         <v>0</v>
@@ -8966,10 +8966,10 @@
         <v>0</v>
       </c>
       <c r="BK43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM43" s="0">
         <v>0</v>
@@ -9001,7 +9001,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" s="0">
         <v>0</v>
@@ -9100,7 +9100,7 @@
         <v>0</v>
       </c>
       <c r="AM44" s="0">
-        <v>0</v>
+        <v>0.71503576027820115</v>
       </c>
       <c r="AN44" s="0">
         <v>0</v>
@@ -9121,7 +9121,7 @@
         <v>0</v>
       </c>
       <c r="AT44" s="0">
-        <v>0</v>
+        <v>0.83643404976914959</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9133,7 +9133,7 @@
         <v>0</v>
       </c>
       <c r="AX44" s="0">
-        <v>0</v>
+        <v>0.88442300898694892</v>
       </c>
       <c r="AY44" s="0">
         <v>0</v>
@@ -9142,7 +9142,7 @@
         <v>0</v>
       </c>
       <c r="BA44" s="0">
-        <v>0</v>
+        <v>0.71832393656598614</v>
       </c>
       <c r="BB44" s="0">
         <v>0</v>
@@ -9151,13 +9151,13 @@
         <v>0</v>
       </c>
       <c r="BD44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF44" s="0">
-        <v>0</v>
+        <v>0.73160020762529665</v>
       </c>
       <c r="BG44" s="0">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="BI44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ44" s="0">
         <v>0</v>
@@ -9210,7 +9210,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" s="0">
         <v>0</v>
@@ -9258,10 +9258,10 @@
         <v>0</v>
       </c>
       <c r="W45" s="0">
-        <v>0</v>
+        <v>0.79085286995585768</v>
       </c>
       <c r="X45" s="0">
-        <v>0</v>
+        <v>0.82407709077959912</v>
       </c>
       <c r="Y45" s="0">
         <v>0</v>
@@ -9270,7 +9270,7 @@
         <v>0</v>
       </c>
       <c r="AA45" s="0">
-        <v>0</v>
+        <v>0.74389670322354706</v>
       </c>
       <c r="AB45" s="0">
         <v>0</v>
@@ -9291,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="AH45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI45" s="0">
         <v>0</v>
@@ -9306,10 +9306,10 @@
         <v>0</v>
       </c>
       <c r="AM45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN45" s="0">
-        <v>0</v>
+        <v>0.74568284631987014</v>
       </c>
       <c r="AO45" s="0">
         <v>0</v>
@@ -9318,7 +9318,7 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>0</v>
+        <v>0.65451310185986877</v>
       </c>
       <c r="AR45" s="0">
         <v>0</v>
@@ -9327,10 +9327,10 @@
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9443,22 +9443,22 @@
         <v>0</v>
       </c>
       <c r="P46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="0">
         <v>0</v>
       </c>
       <c r="R46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S46" s="0">
         <v>0</v>
       </c>
       <c r="T46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V46" s="0">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>0</v>
       </c>
       <c r="AB46" s="0">
-        <v>0</v>
+        <v>0.55689248664773072</v>
       </c>
       <c r="AC46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD46" s="0">
-        <v>0</v>
+        <v>0.94494140393192039</v>
       </c>
       <c r="AE46" s="0">
         <v>0</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="AG46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH46" s="0">
         <v>0</v>
@@ -9506,7 +9506,7 @@
         <v>0</v>
       </c>
       <c r="AK46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL46" s="0">
         <v>0</v>
@@ -9521,16 +9521,16 @@
         <v>0</v>
       </c>
       <c r="AP46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ46" s="0">
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>0</v>
+        <v>0.86734101045214917</v>
       </c>
       <c r="AS46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
@@ -9542,7 +9542,7 @@
         <v>0</v>
       </c>
       <c r="AW46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX46" s="0">
         <v>0</v>
@@ -9599,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="BP46" s="0">
-        <v>0</v>
+        <v>0.83010159850642262</v>
       </c>
     </row>
     <row r="47">
@@ -9691,7 +9691,7 @@
         <v>0</v>
       </c>
       <c r="AD47" s="0">
-        <v>0</v>
+        <v>0.95880657416028492</v>
       </c>
       <c r="AE47" s="0">
         <v>0</v>
@@ -9730,13 +9730,13 @@
         <v>0</v>
       </c>
       <c r="AQ47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR47" s="0">
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT47" s="0">
         <v>0</v>
@@ -9778,10 +9778,10 @@
         <v>0</v>
       </c>
       <c r="BG47" s="0">
-        <v>0</v>
+        <v>0.54129082665777206</v>
       </c>
       <c r="BH47" s="0">
-        <v>0</v>
+        <v>0.75770611284667799</v>
       </c>
       <c r="BI47" s="0">
         <v>0</v>
@@ -9793,7 +9793,7 @@
         <v>0</v>
       </c>
       <c r="BL47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM47" s="0">
         <v>0</v>
@@ -9837,7 +9837,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="0">
-        <v>0</v>
+        <v>0.61867391531118732</v>
       </c>
       <c r="K48" s="0">
         <v>0</v>
@@ -9849,7 +9849,7 @@
         <v>0</v>
       </c>
       <c r="N48" s="0">
-        <v>0</v>
+        <v>0.93029171453895743</v>
       </c>
       <c r="O48" s="0">
         <v>0</v>
@@ -9858,7 +9858,7 @@
         <v>0</v>
       </c>
       <c r="Q48" s="0">
-        <v>0</v>
+        <v>0.96496821720182313</v>
       </c>
       <c r="R48" s="0">
         <v>0</v>
@@ -9918,10 +9918,10 @@
         <v>0</v>
       </c>
       <c r="AK48" s="0">
-        <v>0</v>
+        <v>0.90552698301515688</v>
       </c>
       <c r="AL48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM48" s="0">
         <v>0</v>
@@ -9963,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="AZ48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA48" s="0">
         <v>0</v>
@@ -10022,7 +10022,7 @@
         <v>0</v>
       </c>
       <c r="C49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" s="0">
         <v>0</v>
@@ -10031,7 +10031,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="0">
-        <v>0</v>
+        <v>0.54558291412892057</v>
       </c>
       <c r="G49" s="0">
         <v>0</v>
@@ -10055,7 +10055,7 @@
         <v>0</v>
       </c>
       <c r="N49" s="0">
-        <v>0</v>
+        <v>0.54582398606925853</v>
       </c>
       <c r="O49" s="0">
         <v>0</v>
@@ -10091,7 +10091,7 @@
         <v>0</v>
       </c>
       <c r="Z49" s="0">
-        <v>0</v>
+        <v>0.88173228453556551</v>
       </c>
       <c r="AA49" s="0">
         <v>0</v>
@@ -10100,7 +10100,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD49" s="0">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="AG49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH49" s="0">
         <v>0</v>
@@ -10133,13 +10133,13 @@
         <v>0</v>
       </c>
       <c r="AN49" s="0">
-        <v>0</v>
+        <v>0.75004511173327848</v>
       </c>
       <c r="AO49" s="0">
         <v>0</v>
       </c>
       <c r="AP49" s="0">
-        <v>0</v>
+        <v>0.52038792167343639</v>
       </c>
       <c r="AQ49" s="0">
         <v>0</v>
@@ -10151,7 +10151,7 @@
         <v>0</v>
       </c>
       <c r="AT49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU49" s="0">
         <v>0</v>
@@ -10199,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="BJ49" s="0">
-        <v>0</v>
+        <v>0.74029975325844855</v>
       </c>
       <c r="BK49" s="0">
         <v>0</v>
@@ -10228,7 +10228,7 @@
         <v>0</v>
       </c>
       <c r="C50" s="0">
-        <v>0</v>
+        <v>0.97646705389082944</v>
       </c>
       <c r="D50" s="0">
         <v>0</v>
@@ -10330,7 +10330,7 @@
         <v>0</v>
       </c>
       <c r="AK50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL50" s="0">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="AR50" s="0">
-        <v>0</v>
+        <v>0.96492117605348815</v>
       </c>
       <c r="AS50" s="0">
         <v>0</v>
@@ -10393,16 +10393,16 @@
         <v>0</v>
       </c>
       <c r="BF50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG50" s="0">
         <v>0</v>
       </c>
       <c r="BH50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ50" s="0">
         <v>0</v>
@@ -10417,7 +10417,7 @@
         <v>0</v>
       </c>
       <c r="BN50" s="0">
-        <v>1</v>
+        <v>0.92908737496532212</v>
       </c>
       <c r="BO50" s="0">
         <v>0</v>
@@ -10476,7 +10476,7 @@
         <v>0</v>
       </c>
       <c r="Q51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R51" s="0">
         <v>0</v>
@@ -10512,7 +10512,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="0">
-        <v>0</v>
+        <v>0.8987808906201098</v>
       </c>
       <c r="AD51" s="0">
         <v>0</v>
@@ -10554,7 +10554,7 @@
         <v>0</v>
       </c>
       <c r="AQ51" s="0">
-        <v>0</v>
+        <v>0.6483490797850866</v>
       </c>
       <c r="AR51" s="0">
         <v>0</v>
@@ -10581,7 +10581,7 @@
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA51" s="0">
         <v>0</v>
@@ -10617,7 +10617,7 @@
         <v>0</v>
       </c>
       <c r="BL51" s="0">
-        <v>0</v>
+        <v>0.9443196055160954</v>
       </c>
       <c r="BM51" s="0">
         <v>0</v>
@@ -10629,7 +10629,7 @@
         <v>0</v>
       </c>
       <c r="BP51" s="0">
-        <v>0</v>
+        <v>0.56423550604507988</v>
       </c>
     </row>
     <row r="52">
@@ -10655,7 +10655,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" s="0">
         <v>0</v>
@@ -10667,10 +10667,10 @@
         <v>0</v>
       </c>
       <c r="L52" s="0">
-        <v>0</v>
+        <v>0.83883550930200024</v>
       </c>
       <c r="M52" s="0">
-        <v>0</v>
+        <v>0.70638309814381062</v>
       </c>
       <c r="N52" s="0">
         <v>0</v>
@@ -10703,10 +10703,10 @@
         <v>0</v>
       </c>
       <c r="X52" s="0">
-        <v>0</v>
+        <v>0.86959390411261406</v>
       </c>
       <c r="Y52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z52" s="0">
         <v>0</v>
@@ -10715,7 +10715,7 @@
         <v>0</v>
       </c>
       <c r="AB52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC52" s="0">
         <v>0</v>
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="AV52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW52" s="0">
         <v>0</v>
@@ -10784,7 +10784,7 @@
         <v>0</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
@@ -10796,7 +10796,7 @@
         <v>0</v>
       </c>
       <c r="BC52" s="0">
-        <v>0</v>
+        <v>0.91359555109714208</v>
       </c>
       <c r="BD52" s="0">
         <v>0</v>
@@ -10858,7 +10858,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" s="0">
         <v>0</v>
@@ -10891,7 +10891,7 @@
         <v>0</v>
       </c>
       <c r="R53" s="0">
-        <v>0</v>
+        <v>0.77150267296377195</v>
       </c>
       <c r="S53" s="0">
         <v>0</v>
@@ -10912,13 +10912,13 @@
         <v>0</v>
       </c>
       <c r="Y53" s="0">
-        <v>1</v>
+        <v>0.63330676784758344</v>
       </c>
       <c r="Z53" s="0">
         <v>0</v>
       </c>
       <c r="AA53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB53" s="0">
         <v>0</v>
@@ -10942,10 +10942,10 @@
         <v>0</v>
       </c>
       <c r="AI53" s="0">
-        <v>0</v>
+        <v>0.61082745771835723</v>
       </c>
       <c r="AJ53" s="0">
-        <v>0</v>
+        <v>0.53983490778641474</v>
       </c>
       <c r="AK53" s="0">
         <v>0</v>
@@ -10960,7 +10960,7 @@
         <v>0</v>
       </c>
       <c r="AO53" s="0">
-        <v>0</v>
+        <v>0.73379190479743106</v>
       </c>
       <c r="AP53" s="0">
         <v>0</v>
@@ -10969,7 +10969,7 @@
         <v>0</v>
       </c>
       <c r="AR53" s="0">
-        <v>0</v>
+        <v>0.83991989068173212</v>
       </c>
       <c r="AS53" s="0">
         <v>0</v>
@@ -10999,10 +10999,10 @@
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>0</v>
+        <v>0.85961159228116979</v>
       </c>
       <c r="BC53" s="0">
-        <v>0</v>
+        <v>0.98530898612481244</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11032,7 +11032,7 @@
         <v>0</v>
       </c>
       <c r="BM53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN53" s="0">
         <v>0</v>
@@ -11097,7 +11097,7 @@
         <v>0</v>
       </c>
       <c r="R54" s="0">
-        <v>0</v>
+        <v>0.50517269773485163</v>
       </c>
       <c r="S54" s="0">
         <v>0</v>
@@ -11112,7 +11112,7 @@
         <v>0</v>
       </c>
       <c r="W54" s="0">
-        <v>0</v>
+        <v>0.64207945599074434</v>
       </c>
       <c r="X54" s="0">
         <v>0</v>
@@ -11121,7 +11121,7 @@
         <v>0</v>
       </c>
       <c r="Z54" s="0">
-        <v>0</v>
+        <v>0.58867471269835814</v>
       </c>
       <c r="AA54" s="0">
         <v>0</v>
@@ -11148,7 +11148,7 @@
         <v>0</v>
       </c>
       <c r="AI54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ54" s="0">
         <v>0</v>
@@ -11163,13 +11163,13 @@
         <v>0</v>
       </c>
       <c r="AN54" s="0">
-        <v>1</v>
+        <v>0.89108746484566426</v>
       </c>
       <c r="AO54" s="0">
         <v>0</v>
       </c>
       <c r="AP54" s="0">
-        <v>0</v>
+        <v>0.69513665165438554</v>
       </c>
       <c r="AQ54" s="0">
         <v>0</v>
@@ -11202,7 +11202,7 @@
         <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>0</v>
+        <v>0.82132386980885652</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
@@ -11258,7 +11258,7 @@
         <v>0</v>
       </c>
       <c r="C55" s="0">
-        <v>0</v>
+        <v>0.9085873207134012</v>
       </c>
       <c r="D55" s="0">
         <v>0</v>
@@ -11282,7 +11282,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" s="0">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="V55" s="0">
-        <v>0</v>
+        <v>0.90915879405867162</v>
       </c>
       <c r="W55" s="0">
         <v>0</v>
@@ -11366,7 +11366,7 @@
         <v>0</v>
       </c>
       <c r="AM55" s="0">
-        <v>0</v>
+        <v>0.95858549877784771</v>
       </c>
       <c r="AN55" s="0">
         <v>0</v>
@@ -11405,10 +11405,10 @@
         <v>0</v>
       </c>
       <c r="AZ55" s="0">
-        <v>0</v>
+        <v>0.76349537709167548</v>
       </c>
       <c r="BA55" s="0">
-        <v>0</v>
+        <v>0.66617845585740243</v>
       </c>
       <c r="BB55" s="0">
         <v>0</v>
@@ -11420,7 +11420,7 @@
         <v>0</v>
       </c>
       <c r="BE55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11432,7 +11432,7 @@
         <v>0</v>
       </c>
       <c r="BI55" s="0">
-        <v>0</v>
+        <v>0.75708677417130033</v>
       </c>
       <c r="BJ55" s="0">
         <v>0</v>
@@ -11453,7 +11453,7 @@
         <v>0</v>
       </c>
       <c r="BP55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -11491,10 +11491,10 @@
         <v>0</v>
       </c>
       <c r="L56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56" s="0">
-        <v>0</v>
+        <v>0.84495164903683495</v>
       </c>
       <c r="N56" s="0">
         <v>0</v>
@@ -11527,7 +11527,7 @@
         <v>0</v>
       </c>
       <c r="X56" s="0">
-        <v>0</v>
+        <v>0.66242802628618858</v>
       </c>
       <c r="Y56" s="0">
         <v>0</v>
@@ -11536,13 +11536,13 @@
         <v>0</v>
       </c>
       <c r="AA56" s="0">
-        <v>0</v>
+        <v>0.92775372743357098</v>
       </c>
       <c r="AB56" s="0">
         <v>0</v>
       </c>
       <c r="AC56" s="0">
-        <v>0</v>
+        <v>0.98998171252767886</v>
       </c>
       <c r="AD56" s="0">
         <v>0</v>
@@ -11587,7 +11587,7 @@
         <v>0</v>
       </c>
       <c r="AR56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS56" s="0">
         <v>0</v>
@@ -11626,7 +11626,7 @@
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>0</v>
+        <v>0.85135151600256087</v>
       </c>
       <c r="BF56" s="0">
         <v>0</v>
@@ -11635,7 +11635,7 @@
         <v>0</v>
       </c>
       <c r="BH56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI56" s="0">
         <v>0</v>
@@ -11676,7 +11676,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" s="0">
         <v>0</v>
@@ -11721,7 +11721,7 @@
         <v>0</v>
       </c>
       <c r="T57" s="0">
-        <v>0</v>
+        <v>0.67478265571801033</v>
       </c>
       <c r="U57" s="0">
         <v>0</v>
@@ -11739,7 +11739,7 @@
         <v>0</v>
       </c>
       <c r="Z57" s="0">
-        <v>0</v>
+        <v>0.63649857036101043</v>
       </c>
       <c r="AA57" s="0">
         <v>0</v>
@@ -11748,7 +11748,7 @@
         <v>0</v>
       </c>
       <c r="AC57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD57" s="0">
         <v>0</v>
@@ -11793,7 +11793,7 @@
         <v>0</v>
       </c>
       <c r="AR57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS57" s="0">
         <v>0</v>
@@ -11826,10 +11826,10 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD57" s="0">
-        <v>0</v>
+        <v>0.7511621732557574</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
@@ -11838,7 +11838,7 @@
         <v>0</v>
       </c>
       <c r="BG57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11856,7 +11856,7 @@
         <v>0</v>
       </c>
       <c r="BM57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN57" s="0">
         <v>0</v>
@@ -11945,7 +11945,7 @@
         <v>0</v>
       </c>
       <c r="Z58" s="0">
-        <v>0</v>
+        <v>0.95167924319206254</v>
       </c>
       <c r="AA58" s="0">
         <v>0</v>
@@ -11954,13 +11954,13 @@
         <v>0</v>
       </c>
       <c r="AC58" s="0">
-        <v>0</v>
+        <v>0.94245121925840603</v>
       </c>
       <c r="AD58" s="0">
         <v>0</v>
       </c>
       <c r="AE58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF58" s="0">
         <v>0</v>
@@ -11996,10 +11996,10 @@
         <v>0</v>
       </c>
       <c r="AQ58" s="0">
-        <v>0</v>
+        <v>0.69616465517047699</v>
       </c>
       <c r="AR58" s="0">
-        <v>0</v>
+        <v>0.88617892536962772</v>
       </c>
       <c r="AS58" s="0">
         <v>0</v>
@@ -12017,7 +12017,7 @@
         <v>0</v>
       </c>
       <c r="AX58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY58" s="0">
         <v>0</v>
@@ -12053,7 +12053,7 @@
         <v>0</v>
       </c>
       <c r="BJ58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK58" s="0">
         <v>0</v>
@@ -12106,7 +12106,7 @@
         <v>0</v>
       </c>
       <c r="K59" s="0">
-        <v>0</v>
+        <v>0.60339811295594648</v>
       </c>
       <c r="L59" s="0">
         <v>0</v>
@@ -12115,7 +12115,7 @@
         <v>0</v>
       </c>
       <c r="N59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O59" s="0">
         <v>0</v>
@@ -12214,7 +12214,7 @@
         <v>0</v>
       </c>
       <c r="AU59" s="0">
-        <v>0</v>
+        <v>0.65941778683574381</v>
       </c>
       <c r="AV59" s="0">
         <v>0</v>
@@ -12244,7 +12244,7 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF59" s="0">
         <v>0</v>
@@ -12271,7 +12271,7 @@
         <v>0</v>
       </c>
       <c r="BN59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO59" s="0">
         <v>0</v>
@@ -12288,13 +12288,13 @@
         <v>0</v>
       </c>
       <c r="C60" s="0">
-        <v>1</v>
+        <v>0.61570186770619983</v>
       </c>
       <c r="D60" s="0">
-        <v>0</v>
+        <v>0.84048160395424876</v>
       </c>
       <c r="E60" s="0">
-        <v>0</v>
+        <v>0.58237620540852997</v>
       </c>
       <c r="F60" s="0">
         <v>0</v>
@@ -12336,13 +12336,13 @@
         <v>0</v>
       </c>
       <c r="S60" s="0">
-        <v>0</v>
+        <v>0.54919008413760184</v>
       </c>
       <c r="T60" s="0">
         <v>0</v>
       </c>
       <c r="U60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V60" s="0">
         <v>0</v>
@@ -12420,7 +12420,7 @@
         <v>0</v>
       </c>
       <c r="AU60" s="0">
-        <v>0</v>
+        <v>0.61473203742803206</v>
       </c>
       <c r="AV60" s="0">
         <v>0</v>
@@ -12429,7 +12429,7 @@
         <v>0</v>
       </c>
       <c r="AX60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY60" s="0">
         <v>0</v>
@@ -12447,7 +12447,7 @@
         <v>0</v>
       </c>
       <c r="BD60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE60" s="0">
         <v>0</v>
@@ -12462,13 +12462,13 @@
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ60" s="0">
         <v>0</v>
       </c>
       <c r="BK60" s="0">
-        <v>0</v>
+        <v>0.90383328365371374</v>
       </c>
       <c r="BL60" s="0">
         <v>0</v>
@@ -12602,7 +12602,7 @@
         <v>0</v>
       </c>
       <c r="AM61" s="0">
-        <v>0</v>
+        <v>0.51004484645311532</v>
       </c>
       <c r="AN61" s="0">
         <v>0</v>
@@ -12617,7 +12617,7 @@
         <v>0</v>
       </c>
       <c r="AR61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS61" s="0">
         <v>0</v>
@@ -12635,7 +12635,7 @@
         <v>0</v>
       </c>
       <c r="AX61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY61" s="0">
         <v>0</v>
@@ -12650,7 +12650,7 @@
         <v>0</v>
       </c>
       <c r="BC61" s="0">
-        <v>0</v>
+        <v>0.66313008847380006</v>
       </c>
       <c r="BD61" s="0">
         <v>0</v>
@@ -12665,13 +12665,13 @@
         <v>0</v>
       </c>
       <c r="BH61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK61" s="0">
         <v>0</v>
@@ -12689,7 +12689,7 @@
         <v>0</v>
       </c>
       <c r="BP61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -12700,10 +12700,10 @@
         <v>0</v>
       </c>
       <c r="C62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" s="0">
-        <v>0</v>
+        <v>0.78184717569680529</v>
       </c>
       <c r="E62" s="0">
         <v>0</v>
@@ -12751,7 +12751,7 @@
         <v>0</v>
       </c>
       <c r="T62" s="0">
-        <v>0</v>
+        <v>0.68445972444055414</v>
       </c>
       <c r="U62" s="0">
         <v>0</v>
@@ -12838,7 +12838,7 @@
         <v>0</v>
       </c>
       <c r="AW62" s="0">
-        <v>0</v>
+        <v>0.50965794042116097</v>
       </c>
       <c r="AX62" s="0">
         <v>0</v>
@@ -12865,7 +12865,7 @@
         <v>0</v>
       </c>
       <c r="BF62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG62" s="0">
         <v>0</v>
@@ -12874,7 +12874,7 @@
         <v>0</v>
       </c>
       <c r="BI62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
@@ -12906,7 +12906,7 @@
         <v>0</v>
       </c>
       <c r="C63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" s="0">
         <v>0</v>
@@ -12936,7 +12936,7 @@
         <v>0</v>
       </c>
       <c r="M63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N63" s="0">
         <v>0</v>
@@ -12951,7 +12951,7 @@
         <v>0</v>
       </c>
       <c r="R63" s="0">
-        <v>0</v>
+        <v>0.84604578760754956</v>
       </c>
       <c r="S63" s="0">
         <v>0</v>
@@ -12990,7 +12990,7 @@
         <v>0</v>
       </c>
       <c r="AE63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF63" s="0">
         <v>0</v>
@@ -13008,7 +13008,7 @@
         <v>0</v>
       </c>
       <c r="AK63" s="0">
-        <v>0</v>
+        <v>0.92373206660786977</v>
       </c>
       <c r="AL63" s="0">
         <v>0</v>
@@ -13026,7 +13026,7 @@
         <v>0</v>
       </c>
       <c r="AQ63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR63" s="0">
         <v>0</v>
@@ -13077,7 +13077,7 @@
         <v>0</v>
       </c>
       <c r="BH63" s="0">
-        <v>0</v>
+        <v>0.72050708556777554</v>
       </c>
       <c r="BI63" s="0">
         <v>0</v>
@@ -13089,7 +13089,7 @@
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM63" s="0">
         <v>0</v>
@@ -13106,7 +13106,7 @@
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B64" s="0">
         <v>0</v>
@@ -13130,7 +13130,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="0">
-        <v>0</v>
+        <v>0.83025528862996234</v>
       </c>
       <c r="J64" s="0">
         <v>0</v>
@@ -13163,7 +13163,7 @@
         <v>0</v>
       </c>
       <c r="T64" s="0">
-        <v>0</v>
+        <v>0.63309206929729456</v>
       </c>
       <c r="U64" s="0">
         <v>0</v>
@@ -13178,7 +13178,7 @@
         <v>0</v>
       </c>
       <c r="Y64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z64" s="0">
         <v>0</v>
@@ -13232,7 +13232,7 @@
         <v>0</v>
       </c>
       <c r="AQ64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR64" s="0">
         <v>0</v>
@@ -13244,7 +13244,7 @@
         <v>0</v>
       </c>
       <c r="AU64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV64" s="0">
         <v>0</v>
@@ -13256,7 +13256,7 @@
         <v>0</v>
       </c>
       <c r="AY64" s="0">
-        <v>0</v>
+        <v>0.94849404062659803</v>
       </c>
       <c r="AZ64" s="0">
         <v>0</v>
@@ -13292,7 +13292,7 @@
         <v>0</v>
       </c>
       <c r="BK64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
@@ -13301,7 +13301,7 @@
         <v>0</v>
       </c>
       <c r="BN64" s="0">
-        <v>0</v>
+        <v>0.85260473297483452</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13375,10 +13375,10 @@
         <v>0</v>
       </c>
       <c r="V65" s="0">
-        <v>0</v>
+        <v>0.60718659411258258</v>
       </c>
       <c r="W65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X65" s="0">
         <v>0</v>
@@ -13396,7 +13396,7 @@
         <v>0</v>
       </c>
       <c r="AC65" s="0">
-        <v>0</v>
+        <v>0.88901034064941986</v>
       </c>
       <c r="AD65" s="0">
         <v>0</v>
@@ -13468,7 +13468,7 @@
         <v>0</v>
       </c>
       <c r="BA65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB65" s="0">
         <v>0</v>
@@ -13480,7 +13480,7 @@
         <v>0</v>
       </c>
       <c r="BE65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF65" s="0">
         <v>0</v>
@@ -13563,7 +13563,7 @@
         <v>0</v>
       </c>
       <c r="P66" s="0">
-        <v>0</v>
+        <v>0.5112903459323449</v>
       </c>
       <c r="Q66" s="0">
         <v>0</v>
@@ -13590,7 +13590,7 @@
         <v>0</v>
       </c>
       <c r="Y66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z66" s="0">
         <v>0</v>
@@ -13620,10 +13620,10 @@
         <v>0</v>
       </c>
       <c r="AI66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ66" s="0">
-        <v>0</v>
+        <v>0.55395951919506192</v>
       </c>
       <c r="AK66" s="0">
         <v>0</v>
@@ -13635,7 +13635,7 @@
         <v>0</v>
       </c>
       <c r="AN66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO66" s="0">
         <v>0</v>
@@ -13665,7 +13665,7 @@
         <v>0</v>
       </c>
       <c r="AX66" s="0">
-        <v>1</v>
+        <v>0.86586744829792517</v>
       </c>
       <c r="AY66" s="0">
         <v>0</v>
@@ -13692,7 +13692,7 @@
         <v>0</v>
       </c>
       <c r="BG66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH66" s="0">
         <v>0</v>
@@ -13707,7 +13707,7 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>0</v>
+        <v>0.93453656625460824</v>
       </c>
       <c r="BM66" s="0">
         <v>0</v>
@@ -13719,15 +13719,15 @@
         <v>0</v>
       </c>
       <c r="BP66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B67" s="0">
-        <v>0</v>
+        <v>0.99434682847654321</v>
       </c>
       <c r="C67" s="0">
         <v>0</v>
@@ -13775,7 +13775,7 @@
         <v>0</v>
       </c>
       <c r="R67" s="0">
-        <v>0</v>
+        <v>0.61917823802839456</v>
       </c>
       <c r="S67" s="0">
         <v>0</v>
@@ -13790,7 +13790,7 @@
         <v>0</v>
       </c>
       <c r="W67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X67" s="0">
         <v>0</v>
@@ -13939,7 +13939,7 @@
         <v>0</v>
       </c>
       <c r="D68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68" s="0">
         <v>0</v>
@@ -13948,7 +13948,7 @@
         <v>0</v>
       </c>
       <c r="G68" s="0">
-        <v>0</v>
+        <v>0.67346539124709359</v>
       </c>
       <c r="H68" s="0">
         <v>0</v>
@@ -14065,7 +14065,7 @@
         <v>0</v>
       </c>
       <c r="AT68" s="0">
-        <v>0</v>
+        <v>0.91846569110523379</v>
       </c>
       <c r="AU68" s="0">
         <v>0</v>
@@ -14080,7 +14080,7 @@
         <v>0</v>
       </c>
       <c r="AY68" s="0">
-        <v>0</v>
+        <v>0.86602748561211773</v>
       </c>
       <c r="AZ68" s="0">
         <v>0</v>
@@ -14092,7 +14092,7 @@
         <v>0</v>
       </c>
       <c r="BC68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD68" s="0">
         <v>0</v>
@@ -14110,7 +14110,7 @@
         <v>0</v>
       </c>
       <c r="BI68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ68" s="0">
         <v>0</v>
@@ -14125,7 +14125,7 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject39.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject39.xlsx
@@ -78,9 +78,9 @@
     <col min="20" max="20" width="12.7109375" customWidth="true"/>
     <col min="21" max="21" width="12.7109375" customWidth="true"/>
     <col min="22" max="22" width="12.7109375" customWidth="true"/>
-    <col min="23" max="23" width="11.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
     <col min="24" max="24" width="12.7109375" customWidth="true"/>
-    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="11.7109375" customWidth="true"/>
     <col min="26" max="26" width="12.7109375" customWidth="true"/>
     <col min="27" max="27" width="12.7109375" customWidth="true"/>
     <col min="28" max="28" width="12.7109375" customWidth="true"/>
@@ -191,7 +191,7 @@
         <v>0</v>
       </c>
       <c r="V1" s="0">
-        <v>0.64047676429495826</v>
+        <v>0.8196898509754964</v>
       </c>
       <c r="W1" s="0">
         <v>0</v>
@@ -334,7 +334,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.86374991395654765</v>
+        <v>0.89786389589448246</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>0</v>
       </c>
       <c r="BO2" s="0">
-        <v>0.61645460360710258</v>
+        <v>0.99434682847654321</v>
       </c>
       <c r="BP2" s="0">
         <v>0</v>
@@ -543,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="0">
-        <v>0.59657666939131704</v>
+        <v>0.91799713509561598</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="AE3" s="0">
-        <v>0.53630249637216587</v>
+        <v>0.9615654729102362</v>
       </c>
       <c r="AF3" s="0">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="AX3" s="0">
-        <v>0.5715494595594135</v>
+        <v>0.97646705389082944</v>
       </c>
       <c r="AY3" s="0">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="BC3" s="0">
-        <v>0.55021166047740566</v>
+        <v>0.9085873207134012</v>
       </c>
       <c r="BD3" s="0">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>0.61115049528754972</v>
+        <v>0.81644666083881201</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="BJ4" s="0">
-        <v>0.56811209638394111</v>
+        <v>0.78184717569680529</v>
       </c>
       <c r="BK4" s="0">
         <v>0</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="0">
-        <v>0.84264600806296974</v>
+        <v>0.88436780936657122</v>
       </c>
       <c r="K5" s="0">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="U5" s="0">
-        <v>0.5666831910353719</v>
+        <v>0.95659629227246978</v>
       </c>
       <c r="V5" s="0">
         <v>0</v>
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="BH5" s="0">
-        <v>0.57591409235617785</v>
+        <v>0.58237620540852997</v>
       </c>
       <c r="BI5" s="0">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="0">
-        <v>0.52476556638085037</v>
+        <v>0.64776060777357736</v>
       </c>
       <c r="N6" s="0">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="0">
-        <v>0.57909686693748941</v>
+        <v>0.88647154919835902</v>
       </c>
       <c r="R7" s="0">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>0.50918298216073543</v>
+        <v>0.85168623949150302</v>
       </c>
       <c r="J8" s="0">
         <v>0.55335974691888523</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0.70927137887428438</v>
+        <v>0.73638063343970839</v>
       </c>
       <c r="E9" s="0">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="BL9" s="0">
-        <v>0.53128455368613214</v>
+        <v>0.83025528862996234</v>
       </c>
       <c r="BM9" s="0">
         <v>0</v>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0.54207131598503111</v>
+        <v>0.55335974691888523</v>
       </c>
       <c r="I10" s="0">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="AG10" s="0">
-        <v>0.62441904095437195</v>
+        <v>0.85229449432408111</v>
       </c>
       <c r="AH10" s="0">
         <v>0</v>
@@ -2263,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="Z11" s="0">
-        <v>0.57751788406131366</v>
+        <v>0.706435049448629</v>
       </c>
       <c r="AA11" s="0">
         <v>0</v>
@@ -2314,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="AQ11" s="0">
-        <v>0.67662346653756367</v>
+        <v>0.73753827330045929</v>
       </c>
       <c r="AR11" s="0">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="BG11" s="0">
-        <v>0.57708433211323906</v>
+        <v>0.60339811295594648</v>
       </c>
       <c r="BH11" s="0">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="0">
-        <v>0.72460714149276839</v>
+        <v>0.82531395020077225</v>
       </c>
       <c r="H12" s="0">
         <v>0</v>
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="AZ12" s="0">
-        <v>0.72618078781419493</v>
+        <v>0.83883550930200024</v>
       </c>
       <c r="BA12" s="0">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="0">
-        <v>0.77205744168204937</v>
+        <v>0.7778930298093778</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
@@ -2654,10 +2654,10 @@
         <v>0</v>
       </c>
       <c r="S13" s="0">
-        <v>0.65843157179512102</v>
+        <v>0.86240126345043611</v>
       </c>
       <c r="T13" s="0">
-        <v>0.59721734254289749</v>
+        <v>0.68349295551521039</v>
       </c>
       <c r="U13" s="0">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="AV14" s="0">
-        <v>0.76362164515050912</v>
+        <v>0.93029171453895743</v>
       </c>
       <c r="AW14" s="0">
         <v>0.64870187369516796</v>
@@ -3057,10 +3057,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>0.65073128996873275</v>
+        <v>0.8794884662952811</v>
       </c>
       <c r="Q15" s="0">
-        <v>0.68127732756790205</v>
+        <v>0.92877604213375409</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3538,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="AM17" s="0">
-        <v>0.50365308777114426</v>
+        <v>0.75239941064087301</v>
       </c>
       <c r="AN17" s="0">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="AV17" s="0">
-        <v>0.9304385030484521</v>
+        <v>0.96496821720182313</v>
       </c>
       <c r="AW17" s="0">
         <v>0</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="BA18" s="0">
-        <v>0.70281772108521334</v>
+        <v>0.77150267296377195</v>
       </c>
       <c r="BB18" s="0">
         <v>0.6034740791317752</v>
@@ -3816,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="BK18" s="0">
-        <v>0.60011245418385517</v>
+        <v>0.84604578760754956</v>
       </c>
       <c r="BL18" s="0">
         <v>0</v>
@@ -3845,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="0">
-        <v>0.62879066734187639</v>
+        <v>0.72733351288742842</v>
       </c>
       <c r="E19" s="0">
         <v>0</v>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="X20" s="0">
-        <v>0.63940509963832981</v>
+        <v>0.76313759598868713</v>
       </c>
       <c r="Y20" s="0">
         <v>0</v>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="BJ20" s="0">
-        <v>0.54849650863599919</v>
+        <v>0.68445972444055414</v>
       </c>
       <c r="BK20" s="0">
         <v>0</v>
@@ -4329,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="AB21" s="0">
-        <v>0.77536563917144263</v>
+        <v>0.80787074352202648</v>
       </c>
       <c r="AC21" s="0">
         <v>0</v>
@@ -4368,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="AO21" s="0">
-        <v>0.76795213001634421</v>
+        <v>0.95453049583342464</v>
       </c>
       <c r="AP21" s="0">
         <v>0</v>
@@ -4457,7 +4457,7 @@
         <v>0.8196898509754964</v>
       </c>
       <c r="B22" s="0">
-        <v>0.53615938356205373</v>
+        <v>0.71628889408992413</v>
       </c>
       <c r="C22" s="0">
         <v>0</v>
@@ -4514,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="U22" s="0">
-        <v>0.70321839324497182</v>
+        <v>0.85462142332768187</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
@@ -4616,7 +4616,7 @@
         <v>0</v>
       </c>
       <c r="BC22" s="0">
-        <v>0.78637485476292335</v>
+        <v>0.90915879405867162</v>
       </c>
       <c r="BD22" s="0">
         <v>0</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="BM22" s="0">
-        <v>0.53793503276289345</v>
+        <v>0.60718659411258258</v>
       </c>
       <c r="BN22" s="0">
         <v>0</v>
@@ -4965,7 +4965,7 @@
         <v>0</v>
       </c>
       <c r="AH24" s="0">
-        <v>0.52198036991959573</v>
+        <v>0.77976657115063863</v>
       </c>
       <c r="AI24" s="0">
         <v>0</v>
@@ -5031,7 +5031,7 @@
         <v>0</v>
       </c>
       <c r="BD24" s="0">
-        <v>0.63475827732421375</v>
+        <v>0.66242802628618858</v>
       </c>
       <c r="BE24" s="0">
         <v>0</v>
@@ -5072,7 +5072,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.79307380609506462</v>
+        <v>0.97229334201554951</v>
       </c>
       <c r="B25" s="0">
         <v>0</v>
@@ -5290,13 +5290,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="0">
-        <v>0.88557751852487132</v>
+        <v>0.95723082137572724</v>
       </c>
       <c r="F26" s="0">
         <v>0</v>
       </c>
       <c r="G26" s="0">
-        <v>0.5336641569679843</v>
+        <v>0.79277668789574529</v>
       </c>
       <c r="H26" s="0">
         <v>0</v>
@@ -5449,7 +5449,7 @@
         <v>0.73376350624965359</v>
       </c>
       <c r="BF26" s="0">
-        <v>0.87103861418674278</v>
+        <v>0.95167924319206254</v>
       </c>
       <c r="BG26" s="0">
         <v>0</v>
@@ -5547,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="V27" s="0">
-        <v>0.88054392875512444</v>
+        <v>0.99750206289537724</v>
       </c>
       <c r="W27" s="0">
         <v>0</v>
@@ -5616,7 +5616,7 @@
         <v>0</v>
       </c>
       <c r="AS27" s="0">
-        <v>0.55021590210040627</v>
+        <v>0.74389670322354706</v>
       </c>
       <c r="AT27" s="0">
         <v>0</v>
@@ -5649,7 +5649,7 @@
         <v>0</v>
       </c>
       <c r="BD27" s="0">
-        <v>0.80270241172259948</v>
+        <v>0.92775372743357098</v>
       </c>
       <c r="BE27" s="0">
         <v>0</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="AG28" s="0">
-        <v>0.71735561170144291</v>
+        <v>0.87056683442339722</v>
       </c>
       <c r="AH28" s="0">
         <v>0</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="AY29" s="0">
-        <v>0.67517423365273843</v>
+        <v>0.8987808906201098</v>
       </c>
       <c r="AZ29" s="0">
         <v>0</v>
@@ -6061,13 +6061,13 @@
         <v>0</v>
       </c>
       <c r="BD29" s="0">
-        <v>0.53283401535986452</v>
+        <v>0.98998171252767886</v>
       </c>
       <c r="BE29" s="0">
         <v>0</v>
       </c>
       <c r="BF29" s="0">
-        <v>0.50791342347875612</v>
+        <v>0.94245121925840603</v>
       </c>
       <c r="BG29" s="0">
         <v>0</v>
@@ -6183,7 +6183,7 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>0.58221312171936801</v>
+        <v>0.75272695439639636</v>
       </c>
       <c r="AC30" s="0">
         <v>0</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>0.57570553692811599</v>
+        <v>0.59334742979497301</v>
       </c>
       <c r="AF30" s="0">
         <v>0</v>
@@ -6237,10 +6237,10 @@
         <v>0</v>
       </c>
       <c r="AT30" s="0">
-        <v>0.85995690456108598</v>
+        <v>0.94494140393192039</v>
       </c>
       <c r="AU30" s="0">
-        <v>0.63353659261590922</v>
+        <v>0.95880657416028492</v>
       </c>
       <c r="AV30" s="0">
         <v>0</v>
@@ -6389,7 +6389,7 @@
         <v>0</v>
       </c>
       <c r="AB31" s="0">
-        <v>0.70691871120994643</v>
+        <v>0.73636740690543423</v>
       </c>
       <c r="AC31" s="0">
         <v>0</v>
@@ -6544,7 +6544,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="0">
-        <v>0.6892844722461271</v>
+        <v>0.79772565525357897</v>
       </c>
       <c r="L32" s="0">
         <v>0</v>
@@ -6562,7 +6562,7 @@
         <v>0</v>
       </c>
       <c r="Q32" s="0">
-        <v>0.78236282939020041</v>
+        <v>0.92222907882404859</v>
       </c>
       <c r="R32" s="0">
         <v>0</v>
@@ -6613,7 +6613,7 @@
         <v>0</v>
       </c>
       <c r="AH32" s="0">
-        <v>0.50219083416457333</v>
+        <v>0.82720258695762561</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6723,7 +6723,7 @@
         <v>0</v>
       </c>
       <c r="B33" s="0">
-        <v>0.58107788955001805</v>
+        <v>0.79595010826066948</v>
       </c>
       <c r="C33" s="0">
         <v>0</v>
@@ -6759,13 +6759,13 @@
         <v>0</v>
       </c>
       <c r="N33" s="0">
-        <v>0.6509327736786652</v>
+        <v>0.68670457777987726</v>
       </c>
       <c r="O33" s="0">
         <v>0</v>
       </c>
       <c r="P33" s="0">
-        <v>0.50284941751272272</v>
+        <v>0.56122521446195739</v>
       </c>
       <c r="Q33" s="0">
         <v>0</v>
@@ -6798,13 +6798,13 @@
         <v>0</v>
       </c>
       <c r="AA33" s="0">
-        <v>0.62598178684314409</v>
+        <v>0.87705532647328377</v>
       </c>
       <c r="AB33" s="0">
         <v>0.87056683442339722</v>
       </c>
       <c r="AC33" s="0">
-        <v>0.6011846745775139</v>
+        <v>0.9670199912299402</v>
       </c>
       <c r="AD33" s="0">
         <v>0</v>
@@ -7237,7 +7237,7 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>0.54064200529095974</v>
+        <v>0.54269208145541925</v>
       </c>
       <c r="AK35" s="0">
         <v>0</v>
@@ -7437,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>0.91675080023818567</v>
+        <v>0.92354848379769572</v>
       </c>
       <c r="AI36" s="0">
         <v>0.54269208145541925</v>
@@ -7685,7 +7685,7 @@
         <v>0</v>
       </c>
       <c r="AV37" s="0">
-        <v>0.77576742759660577</v>
+        <v>0.90552698301515688</v>
       </c>
       <c r="AW37" s="0">
         <v>0</v>
@@ -7730,7 +7730,7 @@
         <v>0</v>
       </c>
       <c r="BK37" s="0">
-        <v>0.72953050857315627</v>
+        <v>0.92373206660786977</v>
       </c>
       <c r="BL37" s="0">
         <v>0</v>
@@ -7828,7 +7828,7 @@
         <v>0</v>
       </c>
       <c r="AA38" s="0">
-        <v>0.60289545084598783</v>
+        <v>0.6409977241055147</v>
       </c>
       <c r="AB38" s="0">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>0.62732666266739767</v>
+        <v>0.77704789316527689</v>
       </c>
       <c r="AN38" s="0">
         <v>0</v>
@@ -8061,10 +8061,10 @@
         <v>0</v>
       </c>
       <c r="AJ39" s="0">
-        <v>0.81611991559125729</v>
+        <v>0.98182494251537666</v>
       </c>
       <c r="AK39" s="0">
-        <v>0.78618763510363843</v>
+        <v>0.81399818070346341</v>
       </c>
       <c r="AL39" s="0">
         <v>0.77704789316527689</v>
@@ -8118,7 +8118,7 @@
         <v>0</v>
       </c>
       <c r="BC39" s="0">
-        <v>0.71006269853235593</v>
+        <v>0.95858549877784771</v>
       </c>
       <c r="BD39" s="0">
         <v>0</v>
@@ -8276,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="AM40" s="0">
-        <v>0.74645029454970613</v>
+        <v>0.85243716855873775</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="AS40" s="0">
-        <v>0.66871786537405675</v>
+        <v>0.74568284631987014</v>
       </c>
       <c r="AT40" s="0">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="AW40" s="0">
-        <v>0.69958428512492699</v>
+        <v>0.75004511173327848</v>
       </c>
       <c r="AX40" s="0">
         <v>0</v>
@@ -8321,7 +8321,7 @@
         <v>0</v>
       </c>
       <c r="BB40" s="0">
-        <v>0.64065424786545688</v>
+        <v>0.89108746484566426</v>
       </c>
       <c r="BC40" s="0">
         <v>0</v>
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>0.52576345838920147</v>
+        <v>0.68287798665243926</v>
       </c>
       <c r="AO42" s="0">
         <v>0</v>
@@ -8733,7 +8733,7 @@
         <v>0</v>
       </c>
       <c r="BB42" s="0">
-        <v>0.52675297992450143</v>
+        <v>0.69513665165438554</v>
       </c>
       <c r="BC42" s="0">
         <v>0</v>
@@ -8912,7 +8912,7 @@
         <v>0</v>
       </c>
       <c r="AS43" s="0">
-        <v>0.61559463148011662</v>
+        <v>0.65451310185986877</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -9100,7 +9100,7 @@
         <v>0</v>
       </c>
       <c r="AM44" s="0">
-        <v>0.71503576027820115</v>
+        <v>0.79009375156416084</v>
       </c>
       <c r="AN44" s="0">
         <v>0</v>
@@ -9121,7 +9121,7 @@
         <v>0</v>
       </c>
       <c r="AT44" s="0">
-        <v>0.83643404976914959</v>
+        <v>0.86734101045214917</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9133,7 +9133,7 @@
         <v>0</v>
       </c>
       <c r="AX44" s="0">
-        <v>0.88442300898694892</v>
+        <v>0.96492117605348815</v>
       </c>
       <c r="AY44" s="0">
         <v>0</v>
@@ -9142,7 +9142,7 @@
         <v>0</v>
       </c>
       <c r="BA44" s="0">
-        <v>0.71832393656598614</v>
+        <v>0.83991989068173212</v>
       </c>
       <c r="BB44" s="0">
         <v>0</v>
@@ -9157,7 +9157,7 @@
         <v>0</v>
       </c>
       <c r="BF44" s="0">
-        <v>0.73160020762529665</v>
+        <v>0.88617892536962772</v>
       </c>
       <c r="BG44" s="0">
         <v>0</v>
@@ -9258,10 +9258,10 @@
         <v>0</v>
       </c>
       <c r="W45" s="0">
-        <v>0.79085286995585768</v>
+        <v>0.9537980267474977</v>
       </c>
       <c r="X45" s="0">
-        <v>0.82407709077959912</v>
+        <v>0.88024156490408623</v>
       </c>
       <c r="Y45" s="0">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>0</v>
       </c>
       <c r="AB46" s="0">
-        <v>0.55689248664773072</v>
+        <v>0.60845154581077654</v>
       </c>
       <c r="AC46" s="0">
         <v>0</v>
@@ -9599,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="BP46" s="0">
-        <v>0.83010159850642262</v>
+        <v>0.91846569110523379</v>
       </c>
     </row>
     <row r="47">
@@ -9778,7 +9778,7 @@
         <v>0</v>
       </c>
       <c r="BG47" s="0">
-        <v>0.54129082665777206</v>
+        <v>0.65941778683574381</v>
       </c>
       <c r="BH47" s="0">
         <v>0.75770611284667799</v>
@@ -9837,7 +9837,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="0">
-        <v>0.61867391531118732</v>
+        <v>0.62945298066798405</v>
       </c>
       <c r="K48" s="0">
         <v>0</v>
@@ -10031,7 +10031,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="0">
-        <v>0.54558291412892057</v>
+        <v>0.60275293215027137</v>
       </c>
       <c r="G49" s="0">
         <v>0</v>
@@ -10055,7 +10055,7 @@
         <v>0</v>
       </c>
       <c r="N49" s="0">
-        <v>0.54582398606925853</v>
+        <v>0.64870187369516796</v>
       </c>
       <c r="O49" s="0">
         <v>0</v>
@@ -10091,7 +10091,7 @@
         <v>0</v>
       </c>
       <c r="Z49" s="0">
-        <v>0.88173228453556551</v>
+        <v>0.9497985510331588</v>
       </c>
       <c r="AA49" s="0">
         <v>0</v>
@@ -10139,7 +10139,7 @@
         <v>0</v>
       </c>
       <c r="AP49" s="0">
-        <v>0.52038792167343639</v>
+        <v>0.70592969838118647</v>
       </c>
       <c r="AQ49" s="0">
         <v>0</v>
@@ -10554,7 +10554,7 @@
         <v>0</v>
       </c>
       <c r="AQ51" s="0">
-        <v>0.6483490797850866</v>
+        <v>0.67054698961523362</v>
       </c>
       <c r="AR51" s="0">
         <v>0</v>
@@ -10617,7 +10617,7 @@
         <v>0</v>
       </c>
       <c r="BL51" s="0">
-        <v>0.9443196055160954</v>
+        <v>0.94849404062659803</v>
       </c>
       <c r="BM51" s="0">
         <v>0</v>
@@ -10629,7 +10629,7 @@
         <v>0</v>
       </c>
       <c r="BP51" s="0">
-        <v>0.56423550604507988</v>
+        <v>0.86602748561211773</v>
       </c>
     </row>
     <row r="52">
@@ -10670,7 +10670,7 @@
         <v>0.83883550930200024</v>
       </c>
       <c r="M52" s="0">
-        <v>0.70638309814381062</v>
+        <v>0.82455974166759449</v>
       </c>
       <c r="N52" s="0">
         <v>0</v>
@@ -10703,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="X52" s="0">
-        <v>0.86959390411261406</v>
+        <v>0.94370645727845459</v>
       </c>
       <c r="Y52" s="0">
         <v>0</v>
@@ -10912,7 +10912,7 @@
         <v>0</v>
       </c>
       <c r="Y53" s="0">
-        <v>0.63330676784758344</v>
+        <v>0.78865989698912786</v>
       </c>
       <c r="Z53" s="0">
         <v>0</v>
@@ -10942,10 +10942,10 @@
         <v>0</v>
       </c>
       <c r="AI53" s="0">
-        <v>0.61082745771835723</v>
+        <v>0.65084094823479688</v>
       </c>
       <c r="AJ53" s="0">
-        <v>0.53983490778641474</v>
+        <v>0.62420351415887454</v>
       </c>
       <c r="AK53" s="0">
         <v>0</v>
@@ -10960,7 +10960,7 @@
         <v>0</v>
       </c>
       <c r="AO53" s="0">
-        <v>0.73379190479743106</v>
+        <v>0.98908867627690422</v>
       </c>
       <c r="AP53" s="0">
         <v>0</v>
@@ -11097,7 +11097,7 @@
         <v>0</v>
       </c>
       <c r="R54" s="0">
-        <v>0.50517269773485163</v>
+        <v>0.6034740791317752</v>
       </c>
       <c r="S54" s="0">
         <v>0</v>
@@ -11112,7 +11112,7 @@
         <v>0</v>
       </c>
       <c r="W54" s="0">
-        <v>0.64207945599074434</v>
+        <v>0.95333671099144746</v>
       </c>
       <c r="X54" s="0">
         <v>0</v>
@@ -11121,7 +11121,7 @@
         <v>0</v>
       </c>
       <c r="Z54" s="0">
-        <v>0.58867471269835814</v>
+        <v>0.99636182221272696</v>
       </c>
       <c r="AA54" s="0">
         <v>0</v>
@@ -11202,7 +11202,7 @@
         <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>0.82132386980885652</v>
+        <v>0.85961159228116979</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
@@ -11405,10 +11405,10 @@
         <v>0</v>
       </c>
       <c r="AZ55" s="0">
-        <v>0.76349537709167548</v>
+        <v>0.91359555109714208</v>
       </c>
       <c r="BA55" s="0">
-        <v>0.66617845585740243</v>
+        <v>0.98530898612481244</v>
       </c>
       <c r="BB55" s="0">
         <v>0</v>
@@ -11494,7 +11494,7 @@
         <v>0</v>
       </c>
       <c r="M56" s="0">
-        <v>0.84495164903683495</v>
+        <v>0.84700938276899063</v>
       </c>
       <c r="N56" s="0">
         <v>0</v>
@@ -11721,7 +11721,7 @@
         <v>0</v>
       </c>
       <c r="T57" s="0">
-        <v>0.67478265571801033</v>
+        <v>0.70546905966859197</v>
       </c>
       <c r="U57" s="0">
         <v>0</v>
@@ -11739,7 +11739,7 @@
         <v>0</v>
       </c>
       <c r="Z57" s="0">
-        <v>0.63649857036101043</v>
+        <v>0.73376350624965359</v>
       </c>
       <c r="AA57" s="0">
         <v>0</v>
@@ -11829,7 +11829,7 @@
         <v>0</v>
       </c>
       <c r="BD57" s="0">
-        <v>0.7511621732557574</v>
+        <v>0.85135151600256087</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
@@ -11996,7 +11996,7 @@
         <v>0</v>
       </c>
       <c r="AQ58" s="0">
-        <v>0.69616465517047699</v>
+        <v>0.97096864115692894</v>
       </c>
       <c r="AR58" s="0">
         <v>0.88617892536962772</v>
@@ -12288,10 +12288,10 @@
         <v>0</v>
       </c>
       <c r="C60" s="0">
-        <v>0.61570186770619983</v>
+        <v>0.87818374588137416</v>
       </c>
       <c r="D60" s="0">
-        <v>0.84048160395424876</v>
+        <v>0.97878089041516947</v>
       </c>
       <c r="E60" s="0">
         <v>0.58237620540852997</v>
@@ -12336,7 +12336,7 @@
         <v>0</v>
       </c>
       <c r="S60" s="0">
-        <v>0.54919008413760184</v>
+        <v>0.63047938228128964</v>
       </c>
       <c r="T60" s="0">
         <v>0</v>
@@ -12420,7 +12420,7 @@
         <v>0</v>
       </c>
       <c r="AU60" s="0">
-        <v>0.61473203742803206</v>
+        <v>0.75770611284667799</v>
       </c>
       <c r="AV60" s="0">
         <v>0</v>
@@ -12602,7 +12602,7 @@
         <v>0</v>
       </c>
       <c r="AM61" s="0">
-        <v>0.51004484645311532</v>
+        <v>0.86583727083070561</v>
       </c>
       <c r="AN61" s="0">
         <v>0</v>
@@ -12650,7 +12650,7 @@
         <v>0</v>
       </c>
       <c r="BC61" s="0">
-        <v>0.66313008847380006</v>
+        <v>0.75708677417130033</v>
       </c>
       <c r="BD61" s="0">
         <v>0</v>
@@ -12838,7 +12838,7 @@
         <v>0</v>
       </c>
       <c r="AW62" s="0">
-        <v>0.50965794042116097</v>
+        <v>0.74029975325844855</v>
       </c>
       <c r="AX62" s="0">
         <v>0</v>
@@ -13077,7 +13077,7 @@
         <v>0</v>
       </c>
       <c r="BH63" s="0">
-        <v>0.72050708556777554</v>
+        <v>0.90383328365371374</v>
       </c>
       <c r="BI63" s="0">
         <v>0</v>
@@ -13163,7 +13163,7 @@
         <v>0</v>
       </c>
       <c r="T64" s="0">
-        <v>0.63309206929729456</v>
+        <v>0.74087158682203114</v>
       </c>
       <c r="U64" s="0">
         <v>0</v>
@@ -13301,7 +13301,7 @@
         <v>0</v>
       </c>
       <c r="BN64" s="0">
-        <v>0.85260473297483452</v>
+        <v>0.93453656625460824</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13396,7 +13396,7 @@
         <v>0</v>
       </c>
       <c r="AC65" s="0">
-        <v>0.88901034064941986</v>
+        <v>0.95678028264902593</v>
       </c>
       <c r="AD65" s="0">
         <v>0</v>
@@ -13563,7 +13563,7 @@
         <v>0</v>
       </c>
       <c r="P66" s="0">
-        <v>0.5112903459323449</v>
+        <v>0.98548720081153118</v>
       </c>
       <c r="Q66" s="0">
         <v>0</v>
@@ -13623,7 +13623,7 @@
         <v>0</v>
       </c>
       <c r="AJ66" s="0">
-        <v>0.55395951919506192</v>
+        <v>0.91273118367834027</v>
       </c>
       <c r="AK66" s="0">
         <v>0</v>
@@ -13665,7 +13665,7 @@
         <v>0</v>
       </c>
       <c r="AX66" s="0">
-        <v>0.86586744829792517</v>
+        <v>0.92908737496532212</v>
       </c>
       <c r="AY66" s="0">
         <v>0</v>
@@ -13775,7 +13775,7 @@
         <v>0</v>
       </c>
       <c r="R67" s="0">
-        <v>0.61917823802839456</v>
+        <v>0.82922681066217596</v>
       </c>
       <c r="S67" s="0">
         <v>0</v>
@@ -13948,7 +13948,7 @@
         <v>0</v>
       </c>
       <c r="G68" s="0">
-        <v>0.67346539124709359</v>
+        <v>0.89846351140704606</v>
       </c>
       <c r="H68" s="0">
         <v>0</v>
